--- a/database/2025-mens-club-world-cup.xlsx
+++ b/database/2025-mens-club-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8462A593-DD7F-5445-887B-DBD69F322153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE201AE-6285-4542-9723-CC8EA3390976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="14380" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="160" yWindow="940" windowWidth="33880" windowHeight="14380" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -388,9 +388,6 @@
     <t>WK voor clubs 2025 in de VS</t>
   </si>
   <si>
-    <t>2025年クラブワールドカップアメリカ開催</t>
-  </si>
-  <si>
     <t>جام باشگاه های جهان 2025 آمریکا</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>VS</t>
   </si>
   <si>
-    <t>アメリカ合衆国</t>
-  </si>
-  <si>
     <t>ایالات متحده آمریکا</t>
   </si>
   <si>
@@ -607,9 +601,6 @@
     <t>CWC 2025 Schema / Uitslagen</t>
   </si>
   <si>
-    <t>CWC 2025 スケジュール/スコア</t>
-  </si>
-  <si>
     <t>برنامه / امتیازات CWC 2025</t>
   </si>
   <si>
@@ -1280,6 +1271,15 @@
   </si>
   <si>
     <t>LAF</t>
+  </si>
+  <si>
+    <t>米国</t>
+  </si>
+  <si>
+    <t>2025クラブW杯 日程・スコア</t>
+  </si>
+  <si>
+    <t>2025米国クラブW杯</t>
   </si>
 </sst>
 </file>
@@ -1872,11 +1872,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:I16"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1944,10 +1944,10 @@
         <v>114</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1955,28 +1955,28 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1987,10 +1987,10 @@
         <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>65</v>
@@ -1999,21 +1999,21 @@
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2028,28 +2028,28 @@
         <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2057,28 +2057,28 @@
         <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2086,28 +2086,28 @@
         <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2115,28 +2115,28 @@
         <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2144,28 +2144,28 @@
         <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2173,28 +2173,28 @@
         <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2202,28 +2202,28 @@
         <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2231,28 +2231,28 @@
         <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2260,28 +2260,28 @@
         <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2289,28 +2289,28 @@
         <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2318,28 +2318,28 @@
         <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3776,7 +3776,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3784,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3800,7 +3800,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3808,7 +3808,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3816,7 +3816,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3824,7 +3824,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3832,7 +3832,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3840,7 +3840,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3848,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3856,7 +3856,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3896,7 +3896,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3904,7 +3904,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3912,7 +3912,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3920,7 +3920,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3928,7 +3928,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3936,7 +3936,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3944,7 +3944,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3952,7 +3952,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3960,7 +3960,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3968,7 +3968,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3976,7 +3976,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3984,7 +3984,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3992,7 +3992,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4000,7 +4000,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4008,7 +4008,7 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4070,10 +4070,10 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4081,10 +4081,10 @@
         <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4092,10 +4092,10 @@
         <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4103,10 +4103,10 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4114,10 +4114,10 @@
         <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4125,10 +4125,10 @@
         <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4136,10 +4136,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4147,10 +4147,10 @@
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4213,930 +4213,930 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -5165,16 +5165,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E1" t="s">
         <v>63</v>
@@ -5183,13 +5183,13 @@
         <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J1" t="s">
         <v>93</v>
@@ -5209,16 +5209,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E2" s="6">
         <v>0.83333333333333337</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5253,16 +5253,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E3" s="6">
         <v>0.5</v>
       </c>
       <c r="F3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G3" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5297,16 +5297,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E4" s="6">
         <v>0.625</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5341,16 +5341,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" t="s">
         <v>277</v>
-      </c>
-      <c r="D5" t="s">
-        <v>280</v>
       </c>
       <c r="E5" s="6">
         <v>0.75</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5385,16 +5385,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E6" s="6">
         <v>0.91666666666666663</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5429,16 +5429,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E7" s="6">
         <v>0.625</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5473,16 +5473,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E8" s="6">
         <v>0.75</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5517,16 +5517,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E9" s="6">
         <v>0.875</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5561,16 +5561,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E10" s="6">
         <v>0.5</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5605,16 +5605,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E11" s="6">
         <v>0.625</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5649,16 +5649,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" t="s">
         <v>339</v>
-      </c>
-      <c r="D12" t="s">
-        <v>342</v>
       </c>
       <c r="E12" s="6">
         <v>0.75</v>
       </c>
       <c r="F12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G12" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5693,16 +5693,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" t="s">
         <v>329</v>
-      </c>
-      <c r="D13" t="s">
-        <v>332</v>
       </c>
       <c r="E13" s="6">
         <v>0.625</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5737,16 +5737,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E14" s="6">
         <v>0.5</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5781,16 +5781,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E15" s="6">
         <v>0.625</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G15" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5825,16 +5825,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E16" s="6">
         <v>0.75</v>
       </c>
       <c r="F16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5869,16 +5869,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E17" s="6">
         <v>0.875</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5913,16 +5913,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E18" s="6">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G18" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -5957,16 +5957,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E19" s="6">
         <v>0.625</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G19" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6001,16 +6001,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E20" s="6">
         <v>0.75</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6045,16 +6045,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E21" s="6">
         <v>0.875</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G21" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6089,16 +6089,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E22" s="6">
         <v>0.5</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G22" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6133,16 +6133,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E23" s="6">
         <v>0.58333333333333337</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6177,16 +6177,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E24" s="6">
         <v>0.75</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6221,16 +6221,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E25" s="6">
         <v>0.875</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6265,16 +6265,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E26" s="6">
         <v>0.5</v>
       </c>
       <c r="F26" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6309,16 +6309,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E27" s="6">
         <v>0.625</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G27" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6353,16 +6353,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D28" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E28" s="6">
         <v>0.75</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6397,16 +6397,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E29" s="6">
         <v>0.875</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6441,16 +6441,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E30" s="6">
         <v>0.5</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G30" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6485,16 +6485,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D31" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E31" s="6">
         <v>0.625</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G31" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6529,16 +6529,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E32" s="6">
         <v>0.75</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G32" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6573,16 +6573,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E33" s="6">
         <v>0.875</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G33" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6617,16 +6617,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E34" s="6">
         <v>0.625</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G34" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6661,16 +6661,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E35" s="6">
         <v>0.625</v>
       </c>
       <c r="F35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6705,16 +6705,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E36" s="6">
         <v>0.875</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G36" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6749,16 +6749,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D37" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E37" s="6">
         <v>0.875</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G37" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6793,16 +6793,16 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E38" s="6">
         <v>0.625</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G38" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6837,16 +6837,16 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E39" s="6">
         <v>0.625</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G39" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6881,16 +6881,16 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D40" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E40" s="6">
         <v>0.875</v>
       </c>
       <c r="F40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G40" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6925,16 +6925,16 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E41" s="6">
         <v>0.875</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G41" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -6969,16 +6969,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D42" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E42" s="6">
         <v>0.625</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G42" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7013,16 +7013,16 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D43" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E43" s="6">
         <v>0.625</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G43" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7057,16 +7057,16 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D44" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E44" s="6">
         <v>0.875</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G44" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7101,16 +7101,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E45" s="6">
         <v>0.875</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G45" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7145,16 +7145,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E46" s="6">
         <v>0.625</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G46" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7189,16 +7189,16 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D47" t="s">
         <v>349</v>
-      </c>
-      <c r="D47" t="s">
-        <v>352</v>
       </c>
       <c r="E47" s="6">
         <v>0.625</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G47" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7233,16 +7233,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E48" s="6">
         <v>0.875</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G48" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7277,16 +7277,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D49" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E49" s="6">
         <v>0.875</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G49" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7330,7 +7330,7 @@
         <v>0.5</v>
       </c>
       <c r="F50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G50" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7374,7 +7374,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G51" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7418,7 +7418,7 @@
         <v>0.5</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G52" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7462,7 +7462,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G53" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7506,7 +7506,7 @@
         <v>0.625</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G54" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7550,7 +7550,7 @@
         <v>0.875</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G55" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7594,7 +7594,7 @@
         <v>0.875</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G56" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7638,7 +7638,7 @@
         <v>0.625</v>
       </c>
       <c r="F57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G57" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7682,7 +7682,7 @@
         <v>0.625</v>
       </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G58" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7726,7 +7726,7 @@
         <v>0.875</v>
       </c>
       <c r="F59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G59" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7770,7 +7770,7 @@
         <v>0.5</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G60" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7814,7 +7814,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G61" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7858,7 +7858,7 @@
         <v>0.625</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G62" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7902,7 +7902,7 @@
         <v>0.625</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G63" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
@@ -7946,7 +7946,7 @@
         <v>0.625</v>
       </c>
       <c r="F64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G64" s="7">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
